--- a/student/loi-nhap-lieu-ds-trang-thai-sv.xlsx
+++ b/student/loi-nhap-lieu-ds-trang-thai-sv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -26,43 +26,55 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>654661</t>
+  </si>
+  <si>
+    <t>Đã nhập học</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>654674</t>
+  </si>
+  <si>
+    <t>Bị buộc thôi học</t>
+  </si>
+  <si>
+    <t>20/05/2022</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
     <t>655201</t>
   </si>
   <si>
-    <t>Đang bị cảnh cáo</t>
-  </si>
-  <si>
-    <t>12/12/2022</t>
-  </si>
-  <si>
-    <t>Này</t>
-  </si>
-  <si>
-    <t>654661</t>
-  </si>
-  <si>
-    <t>Được giải thưởng</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Trạng thái không tồn tại</t>
-  </si>
-  <si>
-    <t>654674</t>
+    <t>Đã xin thôi học</t>
+  </si>
+  <si>
+    <t>21/01/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>654323</t>
   </si>
   <si>
     <t>Đã tốt nghiệp</t>
   </si>
   <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>Haha</t>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Thời gian không hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -118,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,8 +168,8 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="1">
-        <v>12</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -168,16 +180,30 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
